--- a/tests/testExcelSheets/updatedProduceSales.xlsx
+++ b/tests/testExcelSheets/updatedProduceSales.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>PRODUCE</t>
   </si>
@@ -66,36 +67,6 @@
   <si>
     <t>Corn</t>
   </si>
-  <si>
-    <t>Grapefruit</t>
-  </si>
-  <si>
-    <t>Eggplant</t>
-  </si>
-  <si>
-    <t>Green cabbage</t>
-  </si>
-  <si>
-    <t>Yellow peppers</t>
-  </si>
-  <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>Cherries</t>
-  </si>
-  <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Green beans</t>
-  </si>
-  <si>
-    <t>Tomatoes</t>
-  </si>
-  <si>
-    <t>Red onion</t>
-  </si>
 </sst>
 </file>
 
@@ -121,12 +92,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,16 +116,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,20 +135,23 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -191,6 +171,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -342,9 +323,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -424,7 +405,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -452,10 +433,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -711,9 +692,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1001,7 +982,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1029,10 +1010,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1283,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1600,293 +1581,333 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="C20" s="4">
-        <v>35.7</v>
-      </c>
-      <c r="D20" s="4">
-        <f>ROUND(B20*C20,2)</f>
-        <v>27.13</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="2">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1719" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.1719" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.8516" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="C2" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="D2" s="4">
+        <f>ROUND(B2*C2,2)</f>
+        <v>18.58</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="C3" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="D3" s="4">
+        <f>ROUND(B3*C3,2)</f>
+        <v>87.23999999999999</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="C4" s="4">
+        <v>32.8</v>
+      </c>
+      <c r="D4" s="4">
+        <f>ROUND(B4*C4,2)</f>
+        <v>88.22999999999999</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C5" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="D5" s="4">
+        <f>ROUND(B5*C5,2)</f>
+        <v>18.02</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="D6" s="4">
+        <f>ROUND(B6*C6,2)</f>
+        <v>15.04</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="D7" s="4">
+        <f>ROUND(B7*C7,2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.49</v>
+      </c>
+      <c r="C8" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="D8" s="4">
+        <f>ROUND(B8*C8,2)</f>
+        <v>94.37</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9.200000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <f>ROUND(B9*C9,2)</f>
+        <v>29.72</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="D10" s="4">
+        <f>ROUND(B10*C10,2)</f>
+        <v>34.39</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <f>ROUND(B11*C11,2)</f>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4">
+        <f>ROUND(B12*C12,2)</f>
+        <v>123.6</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="C13" s="4">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4">
+        <f>ROUND(B13*C13,2)</f>
+        <v>38.52</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3.71</v>
+      </c>
+      <c r="C14" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="D14" s="4">
+        <f>ROUND(B14*C14,2)</f>
+        <v>109.07</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="4">
+        <f>ROUND(B15*C15,2)</f>
+        <v>21.47</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f>ROUND(B16*C16,2)</f>
+        <v>14.26</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C17" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="D17" s="4">
+        <f>ROUND(B17*C17,2)</f>
+        <v>23.36</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B18" s="4">
         <v>5.13</v>
       </c>
-      <c r="C21" s="4">
-        <v>15.2</v>
-      </c>
-      <c r="D21" s="4">
-        <f>ROUND(B21*C21,2)</f>
-        <v>77.97999999999999</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2.32</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4">
-        <f>ROUND(B22*C22,2)</f>
-        <v>11.6</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="C18" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ROUND(B18*C18,2)</f>
+        <v>73.87</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
         <v>1.07</v>
       </c>
-      <c r="C23" s="4">
-        <v>31.8</v>
-      </c>
-      <c r="D23" s="4">
-        <f>ROUND(B23*C23,2)</f>
-        <v>34.03</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="D24" s="4">
-        <f>ROUND(B24*C24,2)</f>
-        <v>2.24</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2.32</v>
-      </c>
-      <c r="C25" s="4">
-        <v>32.8</v>
-      </c>
-      <c r="D25" s="4">
-        <f>ROUND(B25*C25,2)</f>
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="C26" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="D26" s="4">
-        <f>ROUND(B26*C26,2)</f>
-        <v>76.06</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B27" s="4">
-        <v>3.07</v>
-      </c>
-      <c r="C27" s="4">
-        <v>38.2</v>
-      </c>
-      <c r="D27" s="4">
-        <f>ROUND(B27*C27,2)</f>
-        <v>117.27</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2.63</v>
-      </c>
-      <c r="C28" s="4">
-        <v>17.4</v>
-      </c>
-      <c r="D28" s="4">
-        <f>ROUND(B28*C28,2)</f>
-        <v>45.76000000000001</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="C29" s="4">
-        <v>7.300000000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <f>ROUND(B29*C29,2)</f>
-        <v>4.82</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B30" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="C30" s="4">
-        <v>25.6</v>
-      </c>
-      <c r="D30" s="4">
-        <f>ROUND(B30*C30,2)</f>
-        <v>243.2</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="C31" s="4">
-        <v>6.100000000000001</v>
-      </c>
-      <c r="D31" s="4">
-        <f>ROUND(B31*C31,2)</f>
-        <v>11.47</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="C32" s="4">
-        <v>21.1</v>
-      </c>
-      <c r="D32" s="4">
-        <f>ROUND(B32*C32,2)</f>
-        <v>16.04</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B33" s="4">
-        <v>2.63</v>
-      </c>
-      <c r="C33" s="4">
-        <v>4.600000000000001</v>
-      </c>
-      <c r="D33" s="4">
-        <f>ROUND(B33*C33,2)</f>
-        <v>12.1</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B34" s="4">
-        <v>2.52</v>
-      </c>
-      <c r="C34" s="4">
-        <v>31.1</v>
-      </c>
-      <c r="D34" s="4">
-        <f>ROUND(B34*C34,2)</f>
-        <v>78.37</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B35" s="4">
-        <v>3.16</v>
-      </c>
-      <c r="C35" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="D35" s="4">
-        <f>ROUND(B35*C35,2)</f>
-        <v>66.03999999999999</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B36" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7</v>
-      </c>
-      <c r="D36" s="4">
-        <f>ROUND(B36*C36,2)</f>
-        <v>25.97</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="C37" s="4">
-        <v>34.1</v>
-      </c>
-      <c r="D37" s="4">
-        <f>ROUND(B37*C37,2)</f>
-        <v>26.6</v>
-      </c>
-      <c r="E37" s="3"/>
+      <c r="C19" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="D19" s="4">
+        <f>ROUND(B19*C19,2)</f>
+        <v>13.05</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
